--- a/BackTest/2020-01-12 BackTest FCT.xlsx
+++ b/BackTest/2020-01-12 BackTest FCT.xlsx
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -3601,13 +3601,17 @@
         <v>37.72666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="K92" t="n">
+        <v>37.31</v>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
@@ -3636,14 +3640,22 @@
         <v>37.72866666666668</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="K93" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3671,14 +3683,22 @@
         <v>37.72666666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="K94" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3706,13 +3726,17 @@
         <v>37.72633333333334</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>37.2</v>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
@@ -3741,14 +3765,22 @@
         <v>37.71633333333334</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="K96" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3808,22 @@
         <v>37.71300000000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="K97" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3817,8 +3857,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3852,8 +3898,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +3939,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3922,8 +3980,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3957,8 +4021,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4062,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4091,14 +4179,22 @@
         <v>37.57783333333332</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>37</v>
+      </c>
+      <c r="K106" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +4222,22 @@
         <v>37.55116666666666</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>37</v>
+      </c>
+      <c r="K107" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4161,14 +4265,22 @@
         <v>37.52266666666666</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>36.88</v>
+      </c>
+      <c r="K108" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4196,14 +4308,22 @@
         <v>37.49299999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>36.88</v>
+      </c>
+      <c r="K109" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4231,14 +4351,22 @@
         <v>37.46099999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>36.85</v>
+      </c>
+      <c r="K110" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +4394,22 @@
         <v>37.43133333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="K111" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4307,8 +4443,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4336,14 +4478,22 @@
         <v>37.38016666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="K113" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4371,14 +4521,22 @@
         <v>37.3455</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="K114" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4406,14 +4564,22 @@
         <v>37.31083333333333</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="K115" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4441,14 +4607,22 @@
         <v>37.27616666666667</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="K116" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4476,14 +4650,22 @@
         <v>37.24483333333334</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="K117" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4511,14 +4693,22 @@
         <v>37.20950000000001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>36.51</v>
+      </c>
+      <c r="K118" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4555,9 +4745,13 @@
         <v>36.51</v>
       </c>
       <c r="K119" t="n">
-        <v>36.51</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
+        <v>37.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4594,11 +4788,11 @@
         <v>36.51</v>
       </c>
       <c r="K120" t="n">
-        <v>36.51</v>
+        <v>37.2</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -4634,14 +4828,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>36.75</v>
+        <v>36.51</v>
       </c>
       <c r="K121" t="n">
-        <v>36.51</v>
+        <v>37.2</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -4677,12 +4871,16 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>36.89</v>
+        <v>36.75</v>
       </c>
       <c r="K122" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
+        <v>37.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4716,14 +4914,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>36.74</v>
+        <v>36.89</v>
       </c>
       <c r="K123" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -4759,10 +4957,10 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>36.89</v>
+        <v>36.51</v>
       </c>
       <c r="K124" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4802,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>36.74</v>
+        <v>37.07</v>
       </c>
       <c r="K125" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4839,16 +5037,14 @@
         <v>37.06833333333336</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>36.61</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4882,16 +5078,14 @@
         <v>37.05816666666669</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>36.89</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4925,16 +5119,14 @@
         <v>37.05200000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>36.99</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -4968,16 +5160,14 @@
         <v>37.04200000000002</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>36.99</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5011,16 +5201,14 @@
         <v>37.03583333333335</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>36.85</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5061,7 +5249,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5095,16 +5283,14 @@
         <v>37.02800000000002</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>37.19</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5145,7 +5331,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5186,7 +5372,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5227,7 +5413,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5268,7 +5454,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5309,7 +5495,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5350,7 +5536,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5391,7 +5577,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5432,7 +5618,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5473,7 +5659,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5514,7 +5700,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5555,7 +5741,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5596,7 +5782,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5637,7 +5823,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5678,7 +5864,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5719,7 +5905,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5760,7 +5946,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5801,7 +5987,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5842,7 +6028,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5883,7 +6069,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5917,16 +6103,14 @@
         <v>36.90766666666669</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>36.27</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5960,16 +6144,14 @@
         <v>36.89500000000002</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>36.58</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6003,16 +6185,14 @@
         <v>36.88750000000002</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6046,16 +6226,14 @@
         <v>36.87683333333336</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>36.8</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6089,16 +6267,14 @@
         <v>36.87000000000002</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>36.89</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6132,16 +6308,14 @@
         <v>36.85666666666668</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>36.74</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6175,16 +6349,14 @@
         <v>36.84450000000002</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>36.57</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6218,16 +6390,14 @@
         <v>36.83516666666669</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6261,16 +6431,14 @@
         <v>36.82866666666668</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>36.69</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6304,16 +6472,14 @@
         <v>36.82183333333335</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>36.59</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6347,16 +6513,14 @@
         <v>36.81266666666669</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6390,16 +6554,14 @@
         <v>36.80233333333334</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>36.43</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6433,16 +6595,14 @@
         <v>36.79200000000001</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>36.43</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6476,16 +6636,14 @@
         <v>36.78766666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>36.74</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6519,16 +6677,14 @@
         <v>36.77833333333334</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>36.44</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6562,16 +6718,14 @@
         <v>36.76783333333334</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>36.46</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6605,16 +6759,14 @@
         <v>36.76283333333333</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>36.58</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6648,16 +6800,14 @@
         <v>36.76183333333334</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>36.75</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6691,16 +6841,14 @@
         <v>36.76083333333334</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>36.65</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6734,16 +6882,14 @@
         <v>36.754</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>36.65</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6777,16 +6923,14 @@
         <v>36.76883333333333</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>36.41</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6820,16 +6964,14 @@
         <v>36.77116666666666</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>36.75</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6863,16 +7005,14 @@
         <v>36.78366666666666</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>36.75</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6906,16 +7046,14 @@
         <v>36.79599999999999</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>36.89</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6949,16 +7087,14 @@
         <v>36.80333333333331</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>36.99</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6992,16 +7128,14 @@
         <v>36.80666666666664</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>37.19</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7035,16 +7169,14 @@
         <v>36.80983333333331</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7078,16 +7210,14 @@
         <v>36.81466666666664</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7121,16 +7251,14 @@
         <v>36.8178333333333</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7164,16 +7292,14 @@
         <v>36.82349999999997</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>36.86</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7207,16 +7333,14 @@
         <v>36.8268333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>37.09</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7250,16 +7374,14 @@
         <v>36.83649999999997</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>37.09</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7293,16 +7415,14 @@
         <v>36.8368333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>37.09</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7343,7 +7463,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7384,7 +7504,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7425,7 +7545,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7466,7 +7586,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7507,7 +7627,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7548,7 +7668,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7589,7 +7709,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7630,7 +7750,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7671,7 +7791,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7712,7 +7832,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7753,7 +7873,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7794,7 +7914,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7835,7 +7955,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7876,7 +7996,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7917,7 +8037,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7958,7 +8078,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7999,7 +8119,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -8040,7 +8160,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -8081,7 +8201,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8122,7 +8242,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8163,7 +8283,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -8204,7 +8324,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8245,7 +8365,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8286,7 +8406,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8327,7 +8447,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8368,7 +8488,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8409,7 +8529,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8450,7 +8570,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8484,16 +8604,14 @@
         <v>36.86416666666664</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>36.61</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8527,16 +8645,14 @@
         <v>36.86183333333331</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8570,16 +8686,14 @@
         <v>36.86099999999998</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>36.75</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8613,16 +8727,14 @@
         <v>36.85766666666665</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>36.69</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8656,16 +8768,14 @@
         <v>36.86416666666664</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>36.89</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8699,16 +8809,14 @@
         <v>36.87349999999997</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>36.99</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8742,16 +8850,14 @@
         <v>36.88016666666665</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>37</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8785,16 +8891,14 @@
         <v>36.88766666666664</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>37</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8828,16 +8932,14 @@
         <v>36.89766666666664</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>37.19</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8878,7 +8980,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8919,7 +9021,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8960,7 +9062,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -9001,7 +9103,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -9042,7 +9144,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -9083,7 +9185,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -9124,7 +9226,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -9165,7 +9267,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -9206,7 +9308,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -9247,7 +9349,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9288,7 +9390,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9329,7 +9431,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9370,7 +9472,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9411,7 +9513,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9452,7 +9554,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9493,7 +9595,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9534,7 +9636,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9575,7 +9677,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9616,7 +9718,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9657,7 +9759,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9698,7 +9800,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9739,7 +9841,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9776,19 +9878,19 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>36.89</v>
+        <v>37.2</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>1</v>
+        <v>1.013279569892473</v>
       </c>
     </row>
     <row r="245">
@@ -9817,17 +9919,11 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9858,17 +9954,11 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9902,14 +9992,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9943,14 +10027,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9984,14 +10062,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10025,14 +10097,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10066,14 +10132,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10107,14 +10167,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10148,14 +10202,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10189,14 +10237,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10230,14 +10272,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10271,14 +10307,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10312,14 +10342,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10353,14 +10377,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10394,14 +10412,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10435,14 +10447,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10476,14 +10482,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10517,14 +10517,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10558,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10599,14 +10587,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10640,14 +10622,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10678,19 +10654,13 @@
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
-        <v>1.030239902412578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -10719,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
@@ -10754,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
@@ -10789,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
@@ -10824,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
@@ -10859,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
@@ -10894,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
@@ -10929,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
@@ -10964,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
@@ -10999,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest FCT.xlsx
+++ b/BackTest/2020-01-12 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,7 +1144,7 @@
         <v>-27099.8805263818</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>113392.5750736182</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>173172.7485736182</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-187593.1210263818</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-217041.1183263818</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-248639.8237263818</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-266000.9371263818</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-603454.5864263817</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-471711.1637263817</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-490627.7933263817</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-490677.7933263817</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-190677.7933263817</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-190785.7933263817</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-217792.2536263817</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-217792.2536263817</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-220432.4925263817</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-258818.9752263817</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-258416.1871263817</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2758474.635626382</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-337939.3037263816</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-341526.4659263816</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-341468.2340263816</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-341352.5505263816</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-388480.5019263816</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-388426.9113263816</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-388480.7037263816</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-388729.7037263816</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-388729.7037263816</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-399111.7699170002</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-399164.0985170002</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-399216.6333170002</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-394342.0658240931</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-414170.2437240931</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-414282.8973592542</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-431537.4650592542</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -6127,14 +6127,10 @@
         <v>-970960.392759254</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="J174" t="n">
-        <v>36.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6164,19 +6160,11 @@
         <v>-970960.392759254</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="J175" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6205,19 +6193,11 @@
         <v>-1178584.413059254</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="J176" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6246,19 +6226,11 @@
         <v>-1178584.413059254</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>36.51</v>
-      </c>
-      <c r="J177" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6287,19 +6259,11 @@
         <v>-1178584.413059254</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>36.51</v>
-      </c>
-      <c r="J178" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6328,19 +6292,11 @@
         <v>-1178584.413059254</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>36.51</v>
-      </c>
-      <c r="J179" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6369,19 +6325,11 @@
         <v>-1178523.990059254</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>36.51</v>
-      </c>
-      <c r="J180" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6410,19 +6358,11 @@
         <v>-1178463.831459254</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="J181" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6451,19 +6391,11 @@
         <v>-1178853.831459254</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="J182" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6492,19 +6424,11 @@
         <v>-1152811.915393756</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>36.51</v>
-      </c>
-      <c r="J183" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6533,19 +6457,11 @@
         <v>-1152866.351993756</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>37.07</v>
-      </c>
-      <c r="J184" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6574,19 +6490,11 @@
         <v>-1154240.787693756</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>36.74</v>
-      </c>
-      <c r="J185" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6615,19 +6523,11 @@
         <v>-1154180.629093756</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>36.61</v>
-      </c>
-      <c r="J186" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6656,19 +6556,11 @@
         <v>-1154120.748893756</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="J187" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6697,19 +6589,11 @@
         <v>-1173473.760393756</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>36.99</v>
-      </c>
-      <c r="J188" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6738,19 +6622,11 @@
         <v>-1106816.968793756</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="J189" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6779,19 +6655,11 @@
         <v>-1145623.125493756</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>37.08</v>
-      </c>
-      <c r="J190" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6820,19 +6688,11 @@
         <v>-1087294.543493756</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>37.05</v>
-      </c>
-      <c r="J191" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6864,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6900,19 +6754,11 @@
         <v>-1090273.408193756</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="J193" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6944,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6983,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7022,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7061,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7100,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7139,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7178,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7217,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7256,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7295,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7334,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7373,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7412,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7451,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7490,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7529,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7568,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7604,19 +7348,11 @@
         <v>-1539768.863693756</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>36.27</v>
-      </c>
-      <c r="J211" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7645,19 +7381,11 @@
         <v>-1539708.207493756</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>36.42</v>
-      </c>
-      <c r="J212" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7686,19 +7414,11 @@
         <v>-1518970.475293756</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>36.58</v>
-      </c>
-      <c r="J213" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7727,19 +7447,11 @@
         <v>-1518573.475293756</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="J214" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7768,19 +7480,11 @@
         <v>-1505093.360493756</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="J215" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7812,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7848,19 +7546,11 @@
         <v>-1516858.534893756</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J217" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7889,19 +7579,11 @@
         <v>-1513912.971493756</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>36.43</v>
-      </c>
-      <c r="J218" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7930,19 +7612,11 @@
         <v>-1513887.740493756</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J219" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7971,19 +7645,11 @@
         <v>-1522931.749993756</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>36.69</v>
-      </c>
-      <c r="J220" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8012,19 +7678,11 @@
         <v>-1525428.097693756</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="J221" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8053,19 +7711,11 @@
         <v>-1599702.555493756</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J222" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8094,19 +7744,11 @@
         <v>-1599702.555493756</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>36.43</v>
-      </c>
-      <c r="J223" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8135,19 +7777,15 @@
         <v>-1599688.855493756</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>36.43</v>
       </c>
       <c r="J224" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>36.43</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8176,17 +7814,17 @@
         <v>-1616361.473993756</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>36.74</v>
       </c>
       <c r="J225" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -8217,17 +7855,17 @@
         <v>-1751781.014593756</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>36.44</v>
       </c>
       <c r="J226" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -8258,13 +7896,13 @@
         <v>-1751720.358393756</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>36.25</v>
       </c>
       <c r="J227" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8299,13 +7937,13 @@
         <v>-1749002.16277212</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>36.58</v>
       </c>
       <c r="J228" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8340,13 +7978,13 @@
         <v>-1749102.16277212</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>36.79</v>
       </c>
       <c r="J229" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8381,13 +8019,13 @@
         <v>-1787493.362772119</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>36.65</v>
       </c>
       <c r="J230" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8422,13 +8060,13 @@
         <v>-1537493.362772119</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>36.2</v>
       </c>
       <c r="J231" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8463,13 +8101,13 @@
         <v>-1537575.31587212</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>37.5</v>
       </c>
       <c r="J232" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8508,7 +8146,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8547,7 +8185,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8586,7 +8224,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8625,7 +8263,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8664,7 +8302,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8703,7 +8341,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8742,7 +8380,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8777,13 +8415,11 @@
         <v>-1464243.091078797</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8822,7 +8458,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8861,7 +8497,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8900,7 +8536,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8939,7 +8575,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8978,7 +8614,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9017,7 +8653,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9056,7 +8692,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9095,7 +8731,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9134,7 +8770,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9173,7 +8809,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9212,7 +8848,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9251,7 +8887,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9290,7 +8926,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9329,7 +8965,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9368,7 +9004,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9407,7 +9043,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9446,7 +9082,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9485,7 +9121,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9524,7 +9160,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9563,7 +9199,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9602,7 +9238,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9637,13 +9273,13 @@
         <v>-5908847.715845345</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>36.9</v>
       </c>
       <c r="J262" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9678,11 +9314,13 @@
         <v>-5908847.715845345</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>36.9</v>
+      </c>
       <c r="J263" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9717,13 +9355,13 @@
         <v>-5908202.796845345</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>36.9</v>
       </c>
       <c r="J264" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9758,13 +9396,13 @@
         <v>-5908202.796845345</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>37</v>
       </c>
       <c r="J265" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9799,11 +9437,13 @@
         <v>-5908202.796845345</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>37</v>
+      </c>
       <c r="J266" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9838,11 +9478,13 @@
         <v>-5937524.668145345</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>37</v>
+      </c>
       <c r="J267" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9877,11 +9519,13 @@
         <v>-5937524.668145345</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>36.9</v>
+      </c>
       <c r="J268" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9916,11 +9560,13 @@
         <v>-5942881.489145345</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>36.9</v>
+      </c>
       <c r="J269" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9955,11 +9601,13 @@
         <v>-5903555.287445345</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>36.74</v>
+      </c>
       <c r="J270" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9994,13 +9642,13 @@
         <v>-5903609.768545345</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>36.75</v>
       </c>
       <c r="J271" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10035,13 +9683,13 @@
         <v>-5903664.398445345</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>36.71</v>
       </c>
       <c r="J272" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10076,13 +9724,13 @@
         <v>-5903664.398445345</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>36.61</v>
       </c>
       <c r="J273" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10117,11 +9765,13 @@
         <v>-5899363.030945346</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>36.61</v>
+      </c>
       <c r="J274" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10156,11 +9806,13 @@
         <v>-5907812.199745346</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>36.75</v>
+      </c>
       <c r="J275" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10195,11 +9847,13 @@
         <v>-5907752.041145346</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>36.69</v>
+      </c>
       <c r="J276" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10234,11 +9888,13 @@
         <v>-5900508.868945346</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>36.89</v>
+      </c>
       <c r="J277" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10273,11 +9929,13 @@
         <v>-5896307.638245346</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>36.99</v>
+      </c>
       <c r="J278" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10312,11 +9970,13 @@
         <v>-5880434.389745346</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>37</v>
+      </c>
       <c r="J279" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10351,11 +10011,13 @@
         <v>-5880374.688245346</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>37.14</v>
+      </c>
       <c r="J280" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10390,11 +10052,13 @@
         <v>-5908548.946945346</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>37.19</v>
+      </c>
       <c r="J281" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10429,11 +10093,13 @@
         <v>-5909148.946945346</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>37.1</v>
+      </c>
       <c r="J282" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10468,11 +10134,13 @@
         <v>-5908324.511045346</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>36.89</v>
+      </c>
       <c r="J283" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10507,11 +10175,13 @@
         <v>-5908324.511045346</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>37</v>
+      </c>
       <c r="J284" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10546,11 +10216,13 @@
         <v>-5921743.984545346</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>37</v>
+      </c>
       <c r="J285" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10585,11 +10257,13 @@
         <v>-5921668.227545346</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J286" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10624,11 +10298,13 @@
         <v>-5921668.227545346</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>37</v>
+      </c>
       <c r="J287" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10663,13 +10339,13 @@
         <v>-5923111.925345346</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>37</v>
       </c>
       <c r="J288" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10704,11 +10380,13 @@
         <v>-5910909.211245346</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J289" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10743,11 +10421,13 @@
         <v>-5906306.200445346</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>37.1</v>
+      </c>
       <c r="J290" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10782,11 +10462,13 @@
         <v>-5906306.200445346</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>37.19</v>
+      </c>
       <c r="J291" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10821,11 +10503,13 @@
         <v>-5771374.332939058</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>37.19</v>
+      </c>
       <c r="J292" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10860,11 +10544,13 @@
         <v>-5771433.504539058</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>38.01</v>
+      </c>
       <c r="J293" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10903,7 +10589,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10942,7 +10628,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10981,7 +10667,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11020,7 +10706,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11059,7 +10745,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11098,7 +10784,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11137,7 +10823,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11176,7 +10862,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11215,7 +10901,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11254,7 +10940,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11293,7 +10979,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11332,7 +11018,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11371,7 +11057,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11410,7 +11096,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11449,7 +11135,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11488,7 +11174,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11527,7 +11213,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11566,7 +11252,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11605,7 +11291,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11644,7 +11330,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11683,7 +11369,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11722,7 +11408,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11761,7 +11447,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11800,7 +11486,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11839,7 +11525,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11878,7 +11564,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11917,7 +11603,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11956,7 +11642,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11995,7 +11681,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12034,7 +11720,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12073,7 +11759,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12112,7 +11798,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12151,7 +11837,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12190,7 +11876,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12229,7 +11915,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12264,11 +11950,13 @@
         <v>-5938271.341139058</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>37.73</v>
+      </c>
       <c r="J329" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12303,11 +11991,13 @@
         <v>-5940698.977539058</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>37.9</v>
+      </c>
       <c r="J330" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12342,11 +12032,13 @@
         <v>-5946215.793339058</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>37.73</v>
+      </c>
       <c r="J331" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12381,11 +12073,13 @@
         <v>-5960527.340539058</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>37.71</v>
+      </c>
       <c r="J332" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12420,11 +12114,13 @@
         <v>-5971703.377339058</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>37.7</v>
+      </c>
       <c r="J333" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12459,11 +12155,13 @@
         <v>-6203091.746239058</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>37.61</v>
+      </c>
       <c r="J334" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12498,11 +12196,13 @@
         <v>-6203038.746239058</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>36.59</v>
+      </c>
       <c r="J335" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12537,11 +12237,13 @@
         <v>-6203038.746239058</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>37.48</v>
+      </c>
       <c r="J336" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12576,11 +12278,13 @@
         <v>-6204412.605739058</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>37.48</v>
+      </c>
       <c r="J337" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12615,11 +12319,13 @@
         <v>-6214003.514039058</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>37.29</v>
+      </c>
       <c r="J338" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12654,11 +12360,13 @@
         <v>-6222720.698939058</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>37.1</v>
+      </c>
       <c r="J339" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12693,11 +12401,13 @@
         <v>-6220411.158639058</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>37.04</v>
+      </c>
       <c r="J340" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12732,11 +12442,13 @@
         <v>-6204150.419639057</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>37.29</v>
+      </c>
       <c r="J341" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12771,11 +12483,13 @@
         <v>-6204204.269939058</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>37.3</v>
+      </c>
       <c r="J342" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12810,11 +12524,13 @@
         <v>-6204204.269939058</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>37.14</v>
+      </c>
       <c r="J343" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12849,11 +12565,13 @@
         <v>-6295004.958639057</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>37.14</v>
+      </c>
       <c r="J344" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12888,11 +12606,13 @@
         <v>-6290885.901039057</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>36.88</v>
+      </c>
       <c r="J345" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12927,11 +12647,13 @@
         <v>-6290885.901039057</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>37.14</v>
+      </c>
       <c r="J346" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12966,11 +12688,13 @@
         <v>-6290826.167139057</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>37.14</v>
+      </c>
       <c r="J347" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13005,11 +12729,13 @@
         <v>-6290808.437939057</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>37.17</v>
+      </c>
       <c r="J348" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13044,11 +12770,13 @@
         <v>-6291108.437939057</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>37.27</v>
+      </c>
       <c r="J349" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13083,11 +12811,13 @@
         <v>-6290601.854739057</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>37.14</v>
+      </c>
       <c r="J350" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13122,11 +12852,13 @@
         <v>-6290601.854739057</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>37.27</v>
+      </c>
       <c r="J351" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13161,11 +12893,13 @@
         <v>-6290601.854739057</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>37.27</v>
+      </c>
       <c r="J352" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13200,11 +12934,13 @@
         <v>-6261930.978339056</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>37.27</v>
+      </c>
       <c r="J353" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13239,11 +12975,13 @@
         <v>-6261858.868639057</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>37.28</v>
+      </c>
       <c r="J354" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13278,11 +13016,13 @@
         <v>-6263263.958239056</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>37.3</v>
+      </c>
       <c r="J355" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13321,7 +13061,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13356,11 +13096,13 @@
         <v>-6286671.762639056</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>37.28</v>
+      </c>
       <c r="J357" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13395,11 +13137,13 @@
         <v>-6237012.043639056</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>37.15</v>
+      </c>
       <c r="J358" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13434,11 +13178,13 @@
         <v>-6237012.043639056</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>37.17</v>
+      </c>
       <c r="J359" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13473,11 +13219,13 @@
         <v>-6237012.043639056</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>37.17</v>
+      </c>
       <c r="J360" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13512,11 +13260,13 @@
         <v>-6236953.442439056</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>37.17</v>
+      </c>
       <c r="J361" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13551,11 +13301,13 @@
         <v>-6265525.324239056</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>37.28</v>
+      </c>
       <c r="J362" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13590,11 +13342,13 @@
         <v>-6265805.213539056</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>37.1</v>
+      </c>
       <c r="J363" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13629,11 +13383,13 @@
         <v>-6175805.213539056</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>37.09</v>
+      </c>
       <c r="J364" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13668,11 +13424,13 @@
         <v>-6175805.213539056</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>37.1</v>
+      </c>
       <c r="J365" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13707,11 +13465,13 @@
         <v>-6036173.346039056</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>37.1</v>
+      </c>
       <c r="J366" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13750,7 +13510,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13789,7 +13549,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13824,11 +13584,13 @@
         <v>-6036173.346039056</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>37.42</v>
+      </c>
       <c r="J369" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13867,7 +13629,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13906,7 +13668,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13945,7 +13707,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13984,7 +13746,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14023,7 +13785,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14062,7 +13824,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14101,7 +13863,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14140,7 +13902,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14179,7 +13941,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14218,7 +13980,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14257,7 +14019,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14296,7 +14058,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14335,7 +14097,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14374,7 +14136,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14413,7 +14175,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14452,7 +14214,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14491,7 +14253,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14530,7 +14292,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14569,7 +14331,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14608,7 +14370,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14647,7 +14409,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14686,7 +14448,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14725,7 +14487,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14760,13 +14522,11 @@
         <v>-1904318.250639056</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>36.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14801,13 +14561,11 @@
         <v>-1498163.391439056</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>37.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14842,13 +14600,11 @@
         <v>-1498858.255439056</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>37.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14887,7 +14643,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14926,7 +14682,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14965,7 +14721,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -15004,7 +14760,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -15043,7 +14799,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -15082,7 +14838,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15121,7 +14877,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15160,7 +14916,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15199,7 +14955,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15238,7 +14994,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15277,7 +15033,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15316,7 +15072,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15355,7 +15111,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15394,7 +15150,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15433,7 +15189,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15472,7 +15228,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15511,7 +15267,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15550,7 +15306,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15589,7 +15345,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15628,7 +15384,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15667,7 +15423,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15706,7 +15462,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15745,7 +15501,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15784,7 +15540,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15823,7 +15579,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15862,7 +15618,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>36.55</v>
+        <v>36.43</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15875,6 +15631,6 @@
       <c r="M421" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest FCT.xlsx
+++ b/BackTest/2020-01-12 BackTest FCT.xlsx
@@ -1144,7 +1144,7 @@
         <v>-27099.8805263818</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>143667.4194736182</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-168368.9549263818</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-168368.9549263818</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-217792.2536263817</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-258818.9752263817</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-266917.1793263817</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-266864.0443263817</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-266864.0443263817</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-258857.5182263817</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-258857.5182263817</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-399059.6730170002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-399059.6730170002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-399111.7699170002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-399164.0985170002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-394394.7353454755</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-394394.7353454755</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-394423.4885454755</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-394213.8587240931</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-394342.0658240931</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-414170.2437240931</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -9823,10 +9823,14 @@
         <v>-5921668.227545346</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="J286" t="n">
+        <v>36.8</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
@@ -9859,8 +9863,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +9902,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +9941,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +9977,19 @@
         <v>-5906306.200445346</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10018,19 @@
         <v>-5906306.200445346</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>37.19</v>
+      </c>
+      <c r="J291" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10059,19 @@
         <v>-5771374.332939058</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>37.19</v>
+      </c>
+      <c r="J292" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +10103,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10142,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10123,8 +10181,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +10220,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10259,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10298,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +10337,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10376,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10412,19 @@
         <v>-5797855.895439058</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="J301" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10456,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +10495,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10534,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10573,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +10612,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10651,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10687,19 @@
         <v>-5713712.491639058</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>37.91</v>
+      </c>
+      <c r="J308" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10728,19 @@
         <v>-5713712.491639058</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="J309" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10769,19 @@
         <v>-5733112.750739058</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="J310" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10810,19 @@
         <v>-5733097.750739058</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="J311" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10851,19 @@
         <v>-5733097.750739058</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="J312" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10892,19 @@
         <v>-5733039.718539058</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="J313" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10933,19 @@
         <v>-5718903.626639058</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>38.23</v>
+      </c>
+      <c r="J314" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10974,19 @@
         <v>-5844358.647239058</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>38.32</v>
+      </c>
+      <c r="J315" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11015,19 @@
         <v>-5844273.344539058</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="J316" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +11056,19 @@
         <v>-5844246.827539058</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>37.91</v>
+      </c>
+      <c r="J317" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +11097,19 @@
         <v>-5872716.813339058</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="J318" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11138,19 @@
         <v>-5834405.106239058</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>38</v>
+      </c>
+      <c r="J319" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11179,19 @@
         <v>-5834405.106239058</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="J320" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11220,19 @@
         <v>-5833705.106239058</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="J321" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11261,19 @@
         <v>-5833705.106239058</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="J322" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11302,19 @@
         <v>-5832261.106239058</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="J323" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11343,19 @@
         <v>-5892398.465939058</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="J324" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11384,19 @@
         <v>-5892598.465939058</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="J325" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11425,19 @@
         <v>-5919386.193539058</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="J326" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11466,19 @@
         <v>-5924082.660039058</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="J327" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11507,19 @@
         <v>-5938306.521239058</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J328" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11548,19 @@
         <v>-5938271.341139058</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="J329" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11589,19 @@
         <v>-5940698.977539058</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="J330" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11630,19 @@
         <v>-5946215.793339058</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="J331" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11671,19 @@
         <v>-5960527.340539058</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="J332" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11712,19 @@
         <v>-5971703.377339058</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="J333" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11753,19 @@
         <v>-6203091.746239058</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>37.61</v>
+      </c>
+      <c r="J334" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11794,19 @@
         <v>-6203038.746239058</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="J335" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +11835,19 @@
         <v>-6203038.746239058</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>37.48</v>
+      </c>
+      <c r="J336" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11876,19 @@
         <v>-6204412.605739058</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>37.48</v>
+      </c>
+      <c r="J337" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11917,19 @@
         <v>-6214003.514039058</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="J338" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11958,19 @@
         <v>-6222720.698939058</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="J339" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11999,19 @@
         <v>-6220411.158639058</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="J340" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +12040,19 @@
         <v>-6204150.419639057</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="J341" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +12081,19 @@
         <v>-6204204.269939058</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="J342" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +12122,19 @@
         <v>-6204204.269939058</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="J343" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +12163,19 @@
         <v>-6295004.958639057</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="J344" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +12204,19 @@
         <v>-6290885.901039057</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>36.88</v>
+      </c>
+      <c r="J345" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +12245,19 @@
         <v>-6290885.901039057</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="J346" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11842,9 +12292,13 @@
         <v>37.14</v>
       </c>
       <c r="J347" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K347" t="inlineStr"/>
+        <v>36.8</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11879,11 +12333,11 @@
         <v>37.17</v>
       </c>
       <c r="J348" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L348" t="n">
@@ -11920,11 +12374,11 @@
         <v>37.27</v>
       </c>
       <c r="J349" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L349" t="n">
@@ -11955,11 +12409,13 @@
         <v>-6290601.854739057</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>37.14</v>
+      </c>
       <c r="J350" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12000,7 +12456,7 @@
         <v>37.27</v>
       </c>
       <c r="J351" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12041,7 +12497,7 @@
         <v>37.27</v>
       </c>
       <c r="J352" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12076,11 +12532,13 @@
         <v>-6261930.978339056</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>37.27</v>
+      </c>
       <c r="J353" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12115,11 +12573,13 @@
         <v>-6261858.868639057</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>37.28</v>
+      </c>
       <c r="J354" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12160,7 +12620,7 @@
         <v>37.3</v>
       </c>
       <c r="J355" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12195,11 +12655,13 @@
         <v>-6263263.958239056</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>37.28</v>
+      </c>
       <c r="J356" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12240,7 +12702,7 @@
         <v>37.28</v>
       </c>
       <c r="J357" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12281,7 +12743,7 @@
         <v>37.15</v>
       </c>
       <c r="J358" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12322,7 +12784,7 @@
         <v>37.17</v>
       </c>
       <c r="J359" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12363,7 +12825,7 @@
         <v>37.17</v>
       </c>
       <c r="J360" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12404,7 +12866,7 @@
         <v>37.17</v>
       </c>
       <c r="J361" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12445,7 +12907,7 @@
         <v>37.28</v>
       </c>
       <c r="J362" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12486,7 +12948,7 @@
         <v>37.1</v>
       </c>
       <c r="J363" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12527,7 +12989,7 @@
         <v>37.09</v>
       </c>
       <c r="J364" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12568,7 +13030,7 @@
         <v>37.1</v>
       </c>
       <c r="J365" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12609,7 +13071,7 @@
         <v>37.1</v>
       </c>
       <c r="J366" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12650,7 +13112,7 @@
         <v>37.42</v>
       </c>
       <c r="J367" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12691,7 +13153,7 @@
         <v>37.42</v>
       </c>
       <c r="J368" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12732,7 +13194,7 @@
         <v>37.42</v>
       </c>
       <c r="J369" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12773,7 +13235,7 @@
         <v>37.42</v>
       </c>
       <c r="J370" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12814,7 +13276,7 @@
         <v>37.42</v>
       </c>
       <c r="J371" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12849,11 +13311,13 @@
         <v>-6036188.932439056</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>37.41</v>
+      </c>
       <c r="J372" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12888,11 +13352,13 @@
         <v>-6041504.766139057</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>37.41</v>
+      </c>
       <c r="J373" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12927,11 +13393,13 @@
         <v>-6041504.766139057</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>37.4</v>
+      </c>
       <c r="J374" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12966,11 +13434,13 @@
         <v>-6041504.766139057</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>37.4</v>
+      </c>
       <c r="J375" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13005,11 +13475,13 @@
         <v>-6043677.315639056</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>37.4</v>
+      </c>
       <c r="J376" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13044,11 +13516,13 @@
         <v>-6012613.256939056</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>37.28</v>
+      </c>
       <c r="J377" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13083,11 +13557,13 @@
         <v>-6012613.256939056</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>37.43</v>
+      </c>
       <c r="J378" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13122,11 +13598,13 @@
         <v>-6001710.470539057</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>37.43</v>
+      </c>
       <c r="J379" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13161,11 +13639,13 @@
         <v>-6001710.470539057</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>37.54</v>
+      </c>
       <c r="J380" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13200,11 +13680,13 @@
         <v>-6002023.839639056</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>37.54</v>
+      </c>
       <c r="J381" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13239,11 +13721,13 @@
         <v>-6002023.839639056</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>37.41</v>
+      </c>
       <c r="J382" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13278,11 +13762,13 @@
         <v>-6002023.839639056</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>37.41</v>
+      </c>
       <c r="J383" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13317,11 +13803,13 @@
         <v>-1794246.346439056</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>37.41</v>
+      </c>
       <c r="J384" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13356,19 +13844,19 @@
         <v>-1794900.454739056</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>37.14</v>
+        <v>36.8</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L385" t="n">
-        <v>1</v>
+        <v>1.015108695652174</v>
       </c>
       <c r="M385" t="inlineStr"/>
     </row>
@@ -13395,17 +13883,11 @@
         <v>-1742096.155739056</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13434,17 +13916,11 @@
         <v>-1749754.230139056</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13473,17 +13949,11 @@
         <v>-1782182.100639056</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13512,17 +13982,11 @@
         <v>-1782122.100639056</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13551,17 +14015,11 @@
         <v>-1798653.238739056</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13590,17 +14048,11 @@
         <v>-1767230.539839056</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13632,14 +14084,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13671,14 +14117,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13710,14 +14150,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13749,14 +14183,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13788,14 +14216,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13827,14 +14249,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13866,14 +14282,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13905,14 +14315,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13944,14 +14348,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13983,14 +14381,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14022,14 +14414,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14061,14 +14447,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14100,14 +14480,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14139,14 +14513,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14178,14 +14546,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14217,14 +14579,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14256,14 +14612,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14295,14 +14645,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14334,14 +14678,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14373,14 +14711,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14412,14 +14744,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14451,14 +14777,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14490,14 +14810,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14529,14 +14843,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14568,14 +14876,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14607,14 +14909,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14646,14 +14942,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14685,14 +14975,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14724,14 +15008,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14763,14 +15041,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
